--- a/test_pkg/Wireshark.xlsx
+++ b/test_pkg/Wireshark.xlsx
@@ -17,8 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
@@ -21871,48 +21869,4 @@
     <oddFooter>&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;P</oddHeader>
-    <oddFooter>&amp;F</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;P</oddHeader>
-    <oddFooter>&amp;F</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>